--- a/public/resources/ridb.xlsx
+++ b/public/resources/ridb.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A775A02-B294-B04F-ABCB-789DAE6325F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A166F-2FE1-574A-8A9F-9995AC1C02D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
     <sheet name="STOP-IT Database" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="STOP-IT Options" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="DWC - Database" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="DWC - Options" sheetId="5" r:id="rId6"/>
+    <sheet name="DWC - Options" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'DWC - Database'!$A$1:$S$101</definedName>
@@ -6555,7 +6554,7 @@
   </sheetPr>
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
@@ -9880,28 +9879,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC571BF4-DD2E-E449-8704-AC0F3FFEEE13}">
-  <sheetPr>
-    <tabColor rgb="FF0070C0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -10486,12 +10470,67 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectLeader>
+    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
+    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectOwner>
+    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
+    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
+    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
+    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
+    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteDocumentAuthor>
+    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </CorpSiteProjectQA>
+    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
+    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11052,73 +11091,28 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectLeader xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectLeader>
-    <CorpSiteSubTitle xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteTags xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteISBN xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowFeedback xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteAccess xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Kun navngitte medlemmer</CorpSiteAccess>
-    <CorpSiteRecipientPerson xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectName xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocInstitute xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteInstitutePhone xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectOwner xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectOwner>
-    <CorpDocPageClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocPageClassificationNbNo>
-    <CorpDocClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocClassificationEnUs>
-    <CorpDocClassificationNbNo xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpDocClassificationNbNo>
-    <CorpWorkflowStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteClassification xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Åpen</CorpSiteClassification>
-    <CorpSiteInstituteEmail xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteCoAuthors xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocumentAuthor xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteDocumentAuthor>
-    <CorpSiteInstituteEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteRecipientCompany xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteDocLanguage xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocVersion xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpWorkflowApproval xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <ArchiveStatus xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteProjectQA xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </CorpSiteProjectQA>
-    <CorpSiteZipAddress xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteVATNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteReportNumber xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpSiteOurRef xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
-    <CorpDocPageClassificationEnUs xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31">Unrestricted</CorpDocPageClassificationEnUs>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11144,19 +11138,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a9260caa-56b2-4fff-8c54-08cce2d35f77"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7bdb29a1-6c05-4985-aeaa-94b963d0ed58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/public/resources/ridb.xlsx
+++ b/public/resources/ridb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef.sharepoint.com/teams/work-8759/Shared Documents/WP4/T4.2/D4.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{8A775A02-B294-B04F-ABCB-789DAE6325F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6211200-F166-48BC-8AD2-98404EE0712C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25811E95-CD8D-F542-845F-CF50F1164D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="415">
   <si>
     <t>Digital Water City project</t>
   </si>
@@ -1281,9 +1281,6 @@
     <t>27, 28, 46, 48, 54, 67</t>
   </si>
   <si>
-    <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an illicit connection (or to hide one), thus leading to the dispatch of a team (or not). </t>
-  </si>
-  <si>
     <t>46, 48, 54, 67</t>
   </si>
   <si>
@@ -1415,12 +1412,18 @@
   <si>
     <t>Smart sewer cleaning system with HD camera and wireless communication</t>
   </si>
+  <si>
+    <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an overflow (or to hide one). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an an overflow (or to hide one). </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2019,6 +2022,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2033,12 +2042,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2353,45 +2356,45 @@
   </sheetPr>
   <dimension ref="A3:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" ht="24" customHeight="1">
-      <c r="A3" s="79"/>
+    <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="79"/>
-    </row>
-    <row r="5" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A5" s="79"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="81"/>
+    </row>
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="21">
-      <c r="A6" s="79"/>
+    <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="14.5" customHeight="1">
-      <c r="A7" s="79"/>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A8" s="79"/>
+    <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="81"/>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1">
+    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>3</v>
       </c>
@@ -2399,7 +2402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
@@ -2423,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>15</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
@@ -2471,7 +2474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
     </row>
   </sheetData>
@@ -2513,23 +2516,23 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="54.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="54.81640625" style="10" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="54.83203125" style="10" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>27</v>
       </c>
@@ -2578,7 +2581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="43.5">
+    <row r="2" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2611,7 +2614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="58">
+    <row r="3" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2644,7 +2647,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="58">
+    <row r="4" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="43.5">
+    <row r="5" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2704,7 +2707,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.5">
+    <row r="6" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2734,7 +2737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="58">
+    <row r="7" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="43.5">
+    <row r="8" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2794,7 +2797,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="43.5">
+    <row r="9" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2824,7 +2827,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="58">
+    <row r="10" spans="1:17" ht="64" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="58">
+    <row r="11" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2884,7 +2887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="87">
+    <row r="12" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2917,7 +2920,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="57" customHeight="1">
+    <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="43.5">
+    <row r="14" spans="1:17" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="72.5">
+    <row r="15" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="72.5">
+    <row r="16" spans="1:17" ht="80" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3040,7 +3043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="72.5">
+    <row r="17" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="43.5">
+    <row r="18" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3106,7 +3109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="43.5">
+    <row r="19" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="43.5">
+    <row r="20" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3166,7 +3169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="58">
+    <row r="21" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="43.5">
+    <row r="22" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="87">
+    <row r="23" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="58">
+    <row r="24" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3289,7 +3292,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="58">
+    <row r="25" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3326,7 +3329,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:16" ht="43.5">
+    <row r="26" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3363,7 +3366,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:16" ht="107.25" customHeight="1">
+    <row r="27" spans="1:16" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3400,7 +3403,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:16" ht="58">
+    <row r="28" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3437,7 +3440,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:16" ht="43.5">
+    <row r="29" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="58">
+    <row r="30" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3506,7 +3509,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="58">
+    <row r="31" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="43.5">
+    <row r="32" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3566,7 +3569,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="72.5">
+    <row r="33" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="58">
+    <row r="34" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3642,7 +3645,7 @@
       <c r="O34"/>
       <c r="P34"/>
     </row>
-    <row r="35" spans="1:16" ht="58">
+    <row r="35" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="72.5">
+    <row r="36" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3705,7 +3708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="58">
+    <row r="37" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3742,7 +3745,7 @@
       <c r="O37" s="16"/>
       <c r="P37" s="16"/>
     </row>
-    <row r="38" spans="1:16" ht="58">
+    <row r="38" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>External attacker generates a physical caused destruction of power transformer affecting pressure boosting station; which might lead to a quantity issue</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="43.5">
+    <row r="39" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3802,7 +3805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="72.5">
+    <row r="40" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="58">
+    <row r="41" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="43.5">
+    <row r="42" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3910,7 +3913,7 @@
       <c r="O42"/>
       <c r="P42"/>
     </row>
-    <row r="43" spans="1:16" ht="87">
+    <row r="43" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="58">
+    <row r="44" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3983,7 +3986,7 @@
       <c r="O44"/>
       <c r="P44"/>
     </row>
-    <row r="45" spans="1:16" ht="72.5">
+    <row r="45" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="58">
+    <row r="46" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4062,7 +4065,7 @@
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
     </row>
-    <row r="47" spans="1:16" ht="43.5">
+    <row r="47" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4099,7 +4102,7 @@
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
     </row>
-    <row r="48" spans="1:16" ht="43.5">
+    <row r="48" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4138,7 +4141,7 @@
       <c r="O48" s="14"/>
       <c r="P48" s="14"/>
     </row>
-    <row r="49" spans="1:16" ht="43.5">
+    <row r="49" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4177,7 +4180,7 @@
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
     </row>
-    <row r="50" spans="1:16" ht="58">
+    <row r="50" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4216,7 +4219,7 @@
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
     </row>
-    <row r="51" spans="1:16" ht="72.5">
+    <row r="51" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4259,7 +4262,7 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
     </row>
-    <row r="52" spans="1:16" ht="43.5">
+    <row r="52" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4298,7 +4301,7 @@
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
     </row>
-    <row r="53" spans="1:16" ht="58">
+    <row r="53" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4335,7 +4338,7 @@
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
     </row>
-    <row r="54" spans="1:16" ht="58">
+    <row r="54" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4374,7 +4377,7 @@
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
     </row>
-    <row r="55" spans="1:16" ht="58">
+    <row r="55" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4411,7 +4414,7 @@
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
     </row>
-    <row r="56" spans="1:16" ht="43.5">
+    <row r="56" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4448,7 +4451,7 @@
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
     </row>
-    <row r="57" spans="1:16" ht="43.5">
+    <row r="57" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4485,7 +4488,7 @@
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
     </row>
-    <row r="58" spans="1:16" ht="58">
+    <row r="58" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4522,7 +4525,7 @@
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
     </row>
-    <row r="59" spans="1:16" ht="58">
+    <row r="59" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4559,7 +4562,7 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
     </row>
-    <row r="60" spans="1:16" ht="72.5">
+    <row r="60" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4596,7 +4599,7 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
     </row>
-    <row r="61" spans="1:16" ht="43.5">
+    <row r="61" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4635,7 +4638,7 @@
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
     </row>
-    <row r="62" spans="1:16" ht="43.5">
+    <row r="62" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4672,7 +4675,7 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
     </row>
-    <row r="63" spans="1:16" ht="43.5">
+    <row r="63" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4709,7 +4712,7 @@
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
     </row>
-    <row r="64" spans="1:16" ht="43.5">
+    <row r="64" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4743,7 +4746,7 @@
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="1:16" ht="92.25" customHeight="1">
+    <row r="65" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4780,7 +4783,7 @@
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
     </row>
-    <row r="66" spans="1:16" ht="58">
+    <row r="66" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4817,7 +4820,7 @@
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>
     </row>
-    <row r="67" spans="1:16" ht="43.5">
+    <row r="67" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4854,7 +4857,7 @@
       <c r="O67" s="14"/>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="1:16" ht="110.25" customHeight="1">
+    <row r="68" spans="1:16" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4893,7 +4896,7 @@
       <c r="O68" s="14"/>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="1:16" ht="58">
+    <row r="69" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4930,7 +4933,7 @@
       <c r="O69" s="14"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="1:16" ht="72.5">
+    <row r="70" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4977,7 +4980,7 @@
       <c r="O70" s="14"/>
       <c r="P70" s="14"/>
     </row>
-    <row r="71" spans="1:16" ht="58">
+    <row r="71" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
     </row>
-    <row r="72" spans="1:16" ht="58">
+    <row r="72" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5057,7 +5060,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:16" ht="43.5">
+    <row r="73" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5094,7 +5097,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="58">
+    <row r="74" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5131,7 +5134,7 @@
       <c r="O74" s="17"/>
       <c r="P74" s="17"/>
     </row>
-    <row r="75" spans="1:16" ht="58">
+    <row r="75" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="72.5">
+    <row r="76" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5209,7 +5212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="43.5">
+    <row r="77" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="59.25" customHeight="1">
+    <row r="78" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5269,7 +5272,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="72.5">
+    <row r="79" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5299,7 +5302,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="60" customHeight="1">
+    <row r="80" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="43.5">
+    <row r="81" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5359,7 +5362,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="54" customHeight="1">
+    <row r="82" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5391,7 +5394,7 @@
       <c r="Q82" s="14"/>
       <c r="R82" s="10"/>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="21"/>
     </row>
   </sheetData>
@@ -5424,23 +5427,23 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1">
+    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>205</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>40</v>
       </c>
@@ -5481,7 +5484,7 @@
       </c>
       <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>168</v>
       </c>
@@ -5501,7 +5504,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>77</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>110</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>155</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>57</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="D8" t="s">
         <v>231</v>
@@ -5569,7 +5572,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
       <c r="D9" t="s">
         <v>233</v>
@@ -5578,51 +5581,51 @@
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="D10" s="26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="D11" t="s">
         <v>236</v>
       </c>
       <c r="E11" s="24"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="D12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="D13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="D14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="D15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="D16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="D17" t="s">
@@ -5630,68 +5633,68 @@
       </c>
       <c r="E17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="28"/>
       <c r="D18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="D19" t="s">
         <v>243</v>
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
       <c r="D20" t="s">
         <v>244</v>
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="D21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="D22" t="s">
         <v>246</v>
       </c>
       <c r="E22" s="24"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="D23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="35.25" customHeight="1">
+    <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="83" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -5710,9 +5713,9 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
-      <c r="B29" s="82"/>
+      <c r="B29" s="84"/>
       <c r="C29" s="35">
         <v>1</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="40" t="s">
         <v>254</v>
@@ -5750,7 +5753,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="29">
+    <row r="31" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
       <c r="B31" s="40" t="s">
         <v>260</v>
@@ -5771,7 +5774,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.5" customHeight="1">
+    <row r="32" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
       <c r="B32" s="40" t="s">
         <v>266</v>
@@ -5792,7 +5795,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="43.5">
+    <row r="33" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
       <c r="B33" s="40" t="s">
         <v>272</v>
@@ -5807,7 +5810,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="58">
+    <row r="34" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
       <c r="B34" s="40" t="s">
         <v>227</v>
@@ -5828,97 +5831,97 @@
         <v>279</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="23"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="23"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="23"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="23"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="23"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="23"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="23"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="23"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="23"/>
     </row>
   </sheetData>
@@ -5941,27 +5944,27 @@
   </sheetPr>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.453125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="54.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.83203125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:11" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="48" t="s">
         <v>27</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="72.5">
+    <row r="2" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="50">
         <v>1</v>
       </c>
@@ -6013,7 +6016,7 @@
         <v>287</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>229</v>
@@ -6032,7 +6035,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="72.5">
+    <row r="3" spans="1:11" s="43" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="55">
         <v>2</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>287</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G3" s="56" t="s">
         <v>229</v>
@@ -6068,7 +6071,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="43" customFormat="1" ht="87">
+    <row r="4" spans="1:11" s="43" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
         <v>3</v>
       </c>
@@ -6085,7 +6088,7 @@
         <v>287</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G4" s="60" t="s">
         <v>294</v>
@@ -6104,7 +6107,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="43" customFormat="1" ht="87">
+    <row r="5" spans="1:11" s="43" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>287</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G5" s="56" t="s">
         <v>294</v>
@@ -6140,7 +6143,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="72.5">
+    <row r="6" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="50">
         <v>5</v>
       </c>
@@ -6157,7 +6160,7 @@
         <v>287</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>229</v>
@@ -6176,7 +6179,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="72.5">
+    <row r="7" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="50">
         <v>6</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>287</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G7" s="60" t="s">
         <v>229</v>
@@ -6212,7 +6215,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="72.5">
+    <row r="8" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="50">
         <v>7</v>
       </c>
@@ -6229,7 +6232,7 @@
         <v>287</v>
       </c>
       <c r="F8" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G8" s="60" t="s">
         <v>229</v>
@@ -6248,7 +6251,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="72.5">
+    <row r="9" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>240</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G9" s="56" t="s">
         <v>229</v>
@@ -6284,7 +6287,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="72.5">
+    <row r="10" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -6300,8 +6303,8 @@
       <c r="E10" s="76" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="84" t="s">
-        <v>390</v>
+      <c r="F10" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G10" s="56" t="s">
         <v>229</v>
@@ -6320,7 +6323,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72.5">
+    <row r="11" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="50">
         <v>10</v>
       </c>
@@ -6336,8 +6339,8 @@
       <c r="E11" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="85" t="s">
-        <v>390</v>
+      <c r="F11" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="G11" s="60" t="s">
         <v>229</v>
@@ -6356,7 +6359,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="73.5" customHeight="1">
+    <row r="12" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <v>11</v>
       </c>
@@ -6373,7 +6376,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G12" s="61" t="s">
         <v>294</v>
@@ -6392,7 +6395,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="74.5" customHeight="1">
+    <row r="13" spans="1:11" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50">
         <v>12</v>
       </c>
@@ -6409,7 +6412,7 @@
         <v>240</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G13" s="51" t="s">
         <v>294</v>
@@ -6428,7 +6431,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="74.5" customHeight="1">
+    <row r="14" spans="1:11" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <v>13</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>240</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G14" s="61" t="s">
         <v>294</v>
@@ -6464,7 +6467,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="103.5" customHeight="1">
+    <row r="15" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="50">
         <v>14</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>311</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>294</v>
@@ -6500,7 +6503,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="73.75" customHeight="1">
+    <row r="16" spans="1:11" ht="73.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <v>15</v>
       </c>
@@ -6517,7 +6520,7 @@
         <v>311</v>
       </c>
       <c r="F16" s="57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>294</v>
@@ -6536,7 +6539,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="71.5" customHeight="1">
+    <row r="17" spans="1:11" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="50">
         <v>16</v>
       </c>
@@ -6553,7 +6556,7 @@
         <v>311</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G17" s="51" t="s">
         <v>294</v>
@@ -6572,7 +6575,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="88.5" customHeight="1">
+    <row r="18" spans="1:11" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <v>17</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>287</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>294</v>
@@ -6608,7 +6611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="72.5">
+    <row r="19" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="50">
         <v>18</v>
       </c>
@@ -6625,7 +6628,7 @@
         <v>287</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G19" s="51" t="s">
         <v>294</v>
@@ -6644,7 +6647,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="74.5" customHeight="1">
+    <row r="20" spans="1:11" ht="74.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="55">
         <v>19</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>287</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G20" s="61" t="s">
         <v>294</v>
@@ -6680,7 +6683,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="72.5">
+    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="50">
         <v>20</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>240</v>
       </c>
       <c r="F21" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>294</v>
@@ -6716,7 +6719,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="47" customFormat="1" ht="72.5">
+    <row r="22" spans="1:11" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="50">
         <v>21</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>240</v>
       </c>
       <c r="F22" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" s="51" t="s">
         <v>294</v>
@@ -6752,7 +6755,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="72.5">
+    <row r="23" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A23" s="55">
         <v>22</v>
       </c>
@@ -6769,7 +6772,7 @@
         <v>240</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G23" s="61" t="s">
         <v>294</v>
@@ -6788,7 +6791,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="47" customFormat="1" ht="72.5">
+    <row r="24" spans="1:11" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="55">
         <v>23</v>
       </c>
@@ -6805,7 +6808,7 @@
         <v>240</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G24" s="61" t="s">
         <v>294</v>
@@ -6824,7 +6827,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="72.5">
+    <row r="25" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="50">
         <v>24</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>240</v>
       </c>
       <c r="F25" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G25" s="51" t="s">
         <v>294</v>
@@ -6860,7 +6863,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="47" customFormat="1" ht="72.5">
+    <row r="26" spans="1:11" s="47" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A26" s="50">
         <v>25</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>240</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G26" s="51" t="s">
         <v>294</v>
@@ -6896,7 +6899,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="87">
+    <row r="27" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A27" s="55">
         <v>26</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>288</v>
       </c>
       <c r="F27" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G27" s="56" t="s">
         <v>330</v>
@@ -6932,7 +6935,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="87">
+    <row r="28" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="55">
         <v>27</v>
       </c>
@@ -6949,7 +6952,7 @@
         <v>288</v>
       </c>
       <c r="F28" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G28" s="56" t="s">
         <v>330</v>
@@ -6968,7 +6971,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="87">
+    <row r="29" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A29" s="50">
         <v>28</v>
       </c>
@@ -6985,7 +6988,7 @@
         <v>334</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G29" s="64" t="s">
         <v>330</v>
@@ -7004,7 +7007,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="87">
+    <row r="30" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="50">
         <v>29</v>
       </c>
@@ -7021,7 +7024,7 @@
         <v>334</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G30" s="64" t="s">
         <v>330</v>
@@ -7040,7 +7043,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="69.75" customHeight="1">
+    <row r="31" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="50">
         <v>30</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>334</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G31" s="64" t="s">
         <v>330</v>
@@ -7076,7 +7079,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="72.5">
+    <row r="32" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="55">
         <v>31</v>
       </c>
@@ -7092,8 +7095,8 @@
       <c r="E32" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="F32" s="84" t="s">
-        <v>393</v>
+      <c r="F32" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="G32" s="76" t="s">
         <v>340</v>
@@ -7112,7 +7115,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="72.5">
+    <row r="33" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A33" s="50">
         <v>32</v>
       </c>
@@ -7128,8 +7131,8 @@
       <c r="E33" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="F33" s="85" t="s">
-        <v>393</v>
+      <c r="F33" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="G33" s="78" t="s">
         <v>340</v>
@@ -7148,7 +7151,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="72.5">
+    <row r="34" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="55">
         <v>33</v>
       </c>
@@ -7164,8 +7167,8 @@
       <c r="E34" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F34" s="84" t="s">
-        <v>393</v>
+      <c r="F34" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="G34" s="56" t="s">
         <v>340</v>
@@ -7184,7 +7187,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="107.25" customHeight="1">
+    <row r="35" spans="1:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="55">
         <v>34</v>
       </c>
@@ -7200,8 +7203,8 @@
       <c r="E35" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="84" t="s">
-        <v>393</v>
+      <c r="F35" s="79" t="s">
+        <v>392</v>
       </c>
       <c r="G35" s="56" t="s">
         <v>340</v>
@@ -7220,7 +7223,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="72.5">
+    <row r="36" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="50">
         <v>35</v>
       </c>
@@ -7236,8 +7239,8 @@
       <c r="E36" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F36" s="85" t="s">
-        <v>393</v>
+      <c r="F36" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="G36" s="60" t="s">
         <v>340</v>
@@ -7256,7 +7259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="72.5">
+    <row r="37" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="50">
         <v>36</v>
       </c>
@@ -7272,8 +7275,8 @@
       <c r="E37" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F37" s="85" t="s">
-        <v>393</v>
+      <c r="F37" s="80" t="s">
+        <v>392</v>
       </c>
       <c r="G37" s="60" t="s">
         <v>340</v>
@@ -7292,7 +7295,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="87">
+    <row r="38" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>287</v>
       </c>
       <c r="F38" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G38" s="56" t="s">
         <v>330</v>
@@ -7328,7 +7331,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="87">
+    <row r="39" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>287</v>
       </c>
       <c r="F39" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G39" s="56" t="s">
         <v>330</v>
@@ -7364,7 +7367,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="83.25" customHeight="1">
+    <row r="40" spans="1:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="50">
         <v>39</v>
       </c>
@@ -7381,7 +7384,7 @@
         <v>240</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G40" s="60" t="s">
         <v>330</v>
@@ -7400,7 +7403,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="81" customHeight="1">
+    <row r="41" spans="1:11" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="50">
         <v>40</v>
       </c>
@@ -7417,7 +7420,7 @@
         <v>240</v>
       </c>
       <c r="F41" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G41" s="60" t="s">
         <v>330</v>
@@ -7436,7 +7439,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="87">
+    <row r="42" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>240</v>
       </c>
       <c r="F42" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G42" s="56" t="s">
         <v>330</v>
@@ -7472,7 +7475,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="87">
+    <row r="43" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="55">
         <v>42</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>240</v>
       </c>
       <c r="F43" s="58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G43" s="56" t="s">
         <v>330</v>
@@ -7508,7 +7511,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="87">
+    <row r="44" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="50">
         <v>43</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>311</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G44" s="60" t="s">
         <v>330</v>
@@ -7544,7 +7547,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="72.5">
+    <row r="45" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="55">
         <v>44</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>240</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G45" s="61" t="s">
         <v>229</v>
@@ -7580,7 +7583,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="72.5">
+    <row r="46" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A46" s="50">
         <v>45</v>
       </c>
@@ -7597,7 +7600,7 @@
         <v>360</v>
       </c>
       <c r="F46" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G46" s="64" t="s">
         <v>330</v>
@@ -7616,7 +7619,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="72.5">
+    <row r="47" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A47" s="50">
         <v>46</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>360</v>
       </c>
       <c r="F47" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G47" s="64" t="s">
         <v>330</v>
@@ -7652,7 +7655,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="72.5">
+    <row r="48" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A48" s="50">
         <v>47</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>360</v>
       </c>
       <c r="F48" s="65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G48" s="64" t="s">
         <v>330</v>
@@ -7688,7 +7691,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="72.5">
+    <row r="49" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A49" s="55">
         <v>48</v>
       </c>
@@ -7705,7 +7708,7 @@
         <v>365</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G49" s="56" t="s">
         <v>330</v>
@@ -7724,7 +7727,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="72.5">
+    <row r="50" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A50" s="50">
         <v>49</v>
       </c>
@@ -7741,7 +7744,7 @@
         <v>365</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G50" s="60" t="s">
         <v>330</v>
@@ -7760,7 +7763,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="72.5">
+    <row r="51" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A51" s="55">
         <v>50</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>365</v>
       </c>
       <c r="F51" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G51" s="56" t="s">
         <v>330</v>
@@ -7796,7 +7799,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="87">
+    <row r="52" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A52" s="50">
         <v>51</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>287</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G52" s="60" t="s">
         <v>372</v>
@@ -7832,7 +7835,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="87">
+    <row r="53" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A53" s="50">
         <v>52</v>
       </c>
@@ -7849,7 +7852,7 @@
         <v>287</v>
       </c>
       <c r="F53" s="65" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G53" s="64" t="s">
         <v>372</v>
@@ -7868,7 +7871,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="87">
+    <row r="54" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="50">
         <v>53</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>287</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G54" s="60" t="s">
         <v>372</v>
@@ -7904,7 +7907,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="87">
+    <row r="55" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A55" s="55">
         <v>54</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>287</v>
       </c>
       <c r="F55" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G55" s="56" t="s">
         <v>372</v>
@@ -7933,14 +7936,14 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
-      <c r="J55" s="72" t="s">
+      <c r="J55" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="K55" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K55" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="87">
+    </row>
+    <row r="56" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A56" s="55">
         <v>55</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>287</v>
       </c>
       <c r="F56" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G56" s="56" t="s">
         <v>372</v>
@@ -7969,14 +7972,14 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
-      <c r="J56" s="72" t="s">
+      <c r="J56" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="K56" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K56" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="87">
+    </row>
+    <row r="57" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A57" s="55">
         <v>56</v>
       </c>
@@ -7993,7 +7996,7 @@
         <v>287</v>
       </c>
       <c r="F57" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G57" s="56" t="s">
         <v>372</v>
@@ -8005,14 +8008,14 @@
         <f t="shared" si="0"/>
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Reputation issue</v>
       </c>
-      <c r="J57" s="72" t="s">
+      <c r="J57" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="K57" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="K57" s="59" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="72.5">
+    </row>
+    <row r="58" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A58" s="50">
         <v>57</v>
       </c>
@@ -8029,7 +8032,7 @@
         <v>287</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G58" s="60" t="s">
         <v>372</v>
@@ -8042,13 +8045,13 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J58" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="K58" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="K58" s="54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="72.5">
+    </row>
+    <row r="59" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A59" s="50">
         <v>58</v>
       </c>
@@ -8065,7 +8068,7 @@
         <v>287</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G59" s="60" t="s">
         <v>372</v>
@@ -8078,13 +8081,13 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Sensors of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
       <c r="J59" s="66" t="s">
+        <v>376</v>
+      </c>
+      <c r="K59" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="K59" s="54" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="72.5">
+    </row>
+    <row r="60" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A60" s="55">
         <v>59</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>311</v>
       </c>
       <c r="F60" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G60" s="56" t="s">
         <v>372</v>
@@ -8114,13 +8117,13 @@
         <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J60" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K60" s="67">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="72.5">
+    <row r="61" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A61" s="55">
         <v>60</v>
       </c>
@@ -8137,7 +8140,7 @@
         <v>311</v>
       </c>
       <c r="F61" s="58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G61" s="56" t="s">
         <v>372</v>
@@ -8150,13 +8153,13 @@
         <v>External Attacker generates a cyber threat causing a Spoofing of the Web application of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
       </c>
       <c r="J61" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K61" s="67">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="87">
+    <row r="62" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A62" s="50">
         <v>61</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>240</v>
       </c>
       <c r="F62" s="52" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G62" s="51" t="s">
         <v>372</v>
@@ -8186,13 +8189,13 @@
         <v>External Attacker generates a cyber threat causing a Manipulation of the data of the Server of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
       </c>
       <c r="J62" s="75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K62" s="68" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="72.5">
+    <row r="63" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A63" s="55">
         <v>62</v>
       </c>
@@ -8208,8 +8211,8 @@
       <c r="E63" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F63" s="84" t="s">
-        <v>390</v>
+      <c r="F63" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G63" s="56" t="s">
         <v>229</v>
@@ -8222,13 +8225,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J63" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="K63" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="72.5">
+    </row>
+    <row r="64" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A64" s="55">
         <v>63</v>
       </c>
@@ -8244,8 +8247,8 @@
       <c r="E64" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="84" t="s">
-        <v>390</v>
+      <c r="F64" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G64" s="56" t="s">
         <v>229</v>
@@ -8258,13 +8261,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Information Leak issue</v>
       </c>
       <c r="J64" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="K64" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="72.5">
+    </row>
+    <row r="65" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A65" s="55">
         <v>64</v>
       </c>
@@ -8280,8 +8283,8 @@
       <c r="E65" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="84" t="s">
-        <v>390</v>
+      <c r="F65" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G65" s="56" t="s">
         <v>229</v>
@@ -8294,13 +8297,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Information leak issue</v>
       </c>
       <c r="J65" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="K65" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="K65" s="67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="72.5">
+    </row>
+    <row r="66" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A66" s="55">
         <v>65</v>
       </c>
@@ -8316,8 +8319,8 @@
       <c r="E66" s="56" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="84" t="s">
-        <v>390</v>
+      <c r="F66" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="G66" s="56" t="s">
         <v>229</v>
@@ -8330,13 +8333,13 @@
         <v>Human fault generates a cyber threat causing a Manipulation of the data of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a False information issue</v>
       </c>
       <c r="J66" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="K66" s="67" t="s">
         <v>383</v>
       </c>
-      <c r="K66" s="67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="72.5">
+    </row>
+    <row r="67" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="50">
         <v>66</v>
       </c>
@@ -8352,8 +8355,8 @@
       <c r="E67" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F67" s="85" t="s">
-        <v>390</v>
+      <c r="F67" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="G67" s="60" t="s">
         <v>229</v>
@@ -8366,13 +8369,13 @@
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Quality issue</v>
       </c>
       <c r="J67" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K67" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="K67" s="68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="72.5">
+    </row>
+    <row r="68" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="50">
         <v>67</v>
       </c>
@@ -8388,8 +8391,8 @@
       <c r="E68" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="F68" s="85" t="s">
-        <v>390</v>
+      <c r="F68" s="80" t="s">
+        <v>389</v>
       </c>
       <c r="G68" s="60" t="s">
         <v>229</v>
@@ -8402,13 +8405,13 @@
         <v>Human fault generates a cyber threat causing a Denial of Service of the Server of the Sensors for real-time in situ E.coli and enterococci measurements which affects Raw water bodies and might lead to a Reputation issue</v>
       </c>
       <c r="J68" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K68" s="68" t="s">
         <v>383</v>
       </c>
-      <c r="K68" s="68" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="72.5">
+    </row>
+    <row r="69" spans="1:11" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="55">
         <v>68</v>
       </c>
@@ -8425,7 +8428,7 @@
         <v>365</v>
       </c>
       <c r="F69" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G69" s="56" t="s">
         <v>330</v>
@@ -8438,171 +8441,171 @@
         <v>External Attacker generates a cyber threat causing a Denial of Service of the Web server of the Serious game on the water reuse, carbon, energy, food and climatic nexus which affects Digital solution users and might lead to a Reputation issue</v>
       </c>
       <c r="J69" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="K69" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="K69" s="59" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="46"/>
       <c r="I70" s="10"/>
       <c r="J70" s="14"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="46"/>
       <c r="I71" s="10"/>
       <c r="J71" s="14"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
       <c r="I72" s="10"/>
       <c r="J72" s="14"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="46"/>
       <c r="I73" s="10"/>
       <c r="J73" s="14"/>
     </row>
-    <row r="74" spans="1:11" ht="92.25" customHeight="1">
+    <row r="74" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="46"/>
       <c r="I74" s="10"/>
       <c r="J74" s="14"/>
       <c r="K74" s="17"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="46"/>
       <c r="I75" s="10"/>
       <c r="J75" s="14"/>
       <c r="K75" s="17"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="46"/>
       <c r="I76" s="10"/>
       <c r="J76" s="17"/>
     </row>
-    <row r="77" spans="1:11" ht="110.25" customHeight="1">
+    <row r="77" spans="1:11" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="46"/>
       <c r="I77" s="10"/>
       <c r="J77" s="17"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="46"/>
       <c r="I78" s="10"/>
       <c r="J78" s="14"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="46"/>
       <c r="I79" s="10"/>
       <c r="J79" s="14"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="46"/>
       <c r="I80" s="10"/>
       <c r="J80" s="14"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="46"/>
       <c r="I81" s="10"/>
       <c r="J81" s="14"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="46"/>
       <c r="I82" s="10"/>
       <c r="J82" s="14"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="46"/>
       <c r="I83" s="10"/>
       <c r="J83" s="14"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="46"/>
       <c r="I84" s="10"/>
       <c r="J84" s="14"/>
       <c r="K84" s="18"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="46"/>
       <c r="I85" s="10"/>
       <c r="J85" s="17"/>
       <c r="K85" s="18"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="46"/>
       <c r="I86" s="10"/>
       <c r="J86" s="18"/>
       <c r="K86" s="17"/>
     </row>
-    <row r="87" spans="1:11" ht="59.25" customHeight="1">
+    <row r="87" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="46"/>
       <c r="I87" s="10"/>
       <c r="J87" s="18"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="46"/>
       <c r="I88" s="10"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11" ht="60" customHeight="1">
+    <row r="89" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="46"/>
       <c r="I89" s="10"/>
       <c r="J89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="46"/>
       <c r="I90" s="10"/>
       <c r="J90" s="19"/>
     </row>
-    <row r="91" spans="1:11" ht="54" customHeight="1">
+    <row r="91" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="46"/>
       <c r="I91" s="10"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="46"/>
       <c r="I92" s="10"/>
       <c r="J92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="46"/>
       <c r="I93" s="10"/>
       <c r="J93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="46"/>
       <c r="I94" s="10"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="46"/>
       <c r="I95" s="10"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="46"/>
       <c r="I96" s="10"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="46"/>
       <c r="I97" s="10"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="46"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="46"/>
       <c r="I99" s="10"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="46"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="46"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -8634,33 +8637,33 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="97.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-    </row>
-    <row r="2" spans="1:9" s="22" customFormat="1">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>205</v>
       </c>
@@ -8671,20 +8674,20 @@
         <v>11</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="29"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
@@ -8692,13 +8695,13 @@
         <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
         <v>287</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
         <v>212</v>
@@ -8708,7 +8711,7 @@
       </c>
       <c r="I3" s="29"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>168</v>
       </c>
@@ -8719,10 +8722,10 @@
         <v>291</v>
       </c>
       <c r="D4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="77" t="s">
         <v>391</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>392</v>
       </c>
       <c r="F4" t="s">
         <v>217</v>
@@ -8732,7 +8735,7 @@
       </c>
       <c r="I4" s="29"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>77</v>
       </c>
@@ -8746,7 +8749,7 @@
         <v>311</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
         <v>222</v>
@@ -8755,7 +8758,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>155</v>
       </c>
@@ -8763,10 +8766,10 @@
         <v>310</v>
       </c>
       <c r="D6" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="77" t="s">
         <v>394</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>395</v>
       </c>
       <c r="F6" t="s">
         <v>226</v>
@@ -8775,15 +8778,15 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>210</v>
       </c>
       <c r="D7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E7" s="77" t="s">
         <v>396</v>
-      </c>
-      <c r="E7" s="77" t="s">
-        <v>397</v>
       </c>
       <c r="F7" t="s">
         <v>229</v>
@@ -8793,13 +8796,13 @@
       </c>
       <c r="I7" s="29"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="D8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="77" t="s">
         <v>398</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>399</v>
       </c>
       <c r="F8" t="s">
         <v>230</v>
@@ -8809,13 +8812,13 @@
       </c>
       <c r="I8" s="29"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="25"/>
       <c r="D9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="77" t="s">
         <v>400</v>
-      </c>
-      <c r="E9" s="77" t="s">
-        <v>401</v>
       </c>
       <c r="F9" t="s">
         <v>232</v>
@@ -8825,13 +8828,13 @@
       </c>
       <c r="I9" s="29"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
       <c r="D10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>402</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>403</v>
       </c>
       <c r="F10" t="s">
         <v>234</v>
@@ -8841,190 +8844,190 @@
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>404</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>405</v>
       </c>
       <c r="F11" t="s">
         <v>340</v>
       </c>
       <c r="G11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="E12" s="77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="E13" s="77" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="E14" s="77" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="E15" s="77" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="D16" s="44"/>
       <c r="E16" s="77" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="D17" s="44"/>
       <c r="E17" s="77" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="D18" s="44"/>
       <c r="E18" s="77" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" s="24"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="28"/>
       <c r="D19" s="44"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="28"/>
       <c r="D20" s="44"/>
       <c r="F20" s="24"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="23"/>
       <c r="D21" s="44"/>
       <c r="F21" s="24"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="D23" s="44"/>
       <c r="F23" s="24"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="D24" s="44"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="29"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="23"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="23"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="23"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="23"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="23"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="23"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="23"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="23"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="23"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="23"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="23"/>
     </row>
   </sheetData>
@@ -9037,15 +9040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Generic document" ma:contentTypeID="0x01010031B82B69D2361148B4D8F7EC1568021308007D9A44593717FD459F2251A9B7FBE71C" ma:contentTypeVersion="47" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ab4005d24905ce748abc3222dd769ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8bbd4995-53b7-43e2-b62f-10947586ac31" xmlns:ns3="7bdb29a1-6c05-4985-aeaa-94b963d0ed58" xmlns:ns4="a9260caa-56b2-4fff-8c54-08cce2d35f77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="07833896cc6ce16441ca1bfabcee7232" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
@@ -9602,6 +9596,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9667,14 +9670,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44318AEA-79F5-4235-8B02-6DD2CEC3378F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9694,6 +9689,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
   <ds:schemaRefs>

--- a/public/resources/ridb.xlsx
+++ b/public/resources/ridb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Documents/SINTEF-Projects/Digital_Water_City/ridb_rrmd_site/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25811E95-CD8D-F542-845F-CF50F1164D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A26E9-DBA5-8B49-8603-904C982F0A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19620" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="418">
   <si>
     <t>Digital Water City project</t>
   </si>
@@ -1417,6 +1417,15 @@
   </si>
   <si>
     <t xml:space="preserve">An attacker accesses the sensors, and manipulates the data to trick the system into thinking that there has been an an overflow (or to hide one). </t>
+  </si>
+  <si>
+    <t>An attacker manages to intercept data sent to the backend, and create a replay attack which fills the database over the expected limit, creating additional cost.</t>
+  </si>
+  <si>
+    <t>An attacker manages to intercept data sent to the backend, and create a replay attack which fills the database over the expected limit, which can lead to the destruction of data if the database is configured to do so.</t>
+  </si>
+  <si>
+    <t>49, 54, 58, 66, 67, 71, 72, 73, 74</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1823,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2027,6 +2036,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2367,29 +2379,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="81"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="81"/>
+      <c r="A4" s="82"/>
     </row>
     <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="81"/>
+      <c r="A7" s="82"/>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -5684,17 +5696,17 @@
     </row>
     <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="84" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -5715,7 +5727,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
-      <c r="B29" s="84"/>
+      <c r="B29" s="85"/>
       <c r="C29" s="35">
         <v>1</v>
       </c>
@@ -5944,9 +5956,9 @@
   </sheetPr>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8447,15 +8459,77 @@
         <v>385</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="46"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="14"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="46"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="14"/>
+    <row r="70" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A70" s="50">
+        <v>69</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G70" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="53" t="str">
+        <f>CONCATENATE(B70," generates a ",C70," threat causing a ",D70," of the ",E70," of the ",F70," which affects ",G70," and might lead to a ",H70," issue")</f>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Database of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Financial issue</v>
+      </c>
+      <c r="J70" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="K70" s="68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="80" x14ac:dyDescent="0.2">
+      <c r="A71" s="50">
+        <v>70</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>393</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G71" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="H71" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="I71" s="53" t="str">
+        <f>CONCATENATE(B71," generates a ",C71," threat causing a ",D71," of the ",E71," of the ",F71," which affects ",G71," and might lead to a ",H71," issue")</f>
+        <v>External Attacker generates a cyber threat causing a Denial of Service of the Database of the Low-cost temperature sensors for real-time combined sewer overflow (CSO) and flood monitoring which affects CSOs data quality and might lead to a Quality issue</v>
+      </c>
+      <c r="J71" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="K71" s="68" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="46"/>
@@ -8655,13 +8729,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
     </row>
     <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
@@ -9597,15 +9671,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <CorpSiteZipContact xmlns="8bbd4995-53b7-43e2-b62f-10947586ac31" xsi:nil="true"/>
@@ -9669,6 +9734,15 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44318AEA-79F5-4235-8B02-6DD2CEC3378F}">
   <ds:schemaRefs>
@@ -9690,14 +9764,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7F349EE-E6AA-48A4-95BE-82225EC4F196}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9705,4 +9771,12 @@
     <ds:schemaRef ds:uri="8bbd4995-53b7-43e2-b62f-10947586ac31"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{686CC270-D0C6-4072-853D-FFE6AF3FFD6C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>